--- a/MainTop/12.12.2025 Таня ВБ/спрос_12-12-2025 Таня Мес с 12-11-2025 по 12-12-2025_sorted_colored.xlsx
+++ b/MainTop/12.12.2025 Таня ВБ/спрос_12-12-2025 Таня Мес с 12-11-2025 по 12-12-2025_sorted_colored.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\12.12.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1ACDA-7A96-403A-B3AC-F9F5ABE708BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B1335-7F5B-4916-A7A4-DA24352D5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Артикул</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>12.12.2025 Таня ВБ</t>
+  </si>
+  <si>
+    <t>место</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -287,11 +290,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -300,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +633,7 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,11 +646,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -647,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -675,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -689,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -703,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -717,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -731,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -745,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -759,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -773,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -787,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -801,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -815,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -829,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
